--- a/GCF_DataFiles/GCF_BD_MASTER.xlsx
+++ b/GCF_DataFiles/GCF_BD_MASTER.xlsx
@@ -13126,11 +13126,11 @@
 </file>
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="wshTEC_Local"/>
-  <dimension ref="A1:P272"/>
+  <dimension ref="A1:P274"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D36" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D36" zoomScaleNormal="100" workbookViewId="0" rightToLeft="false">
       <pane ySplit="570" topLeftCell="A237" activePane="bottomLeft"/>
       <selection activeCell="P2" sqref="P2:P272"/>
       <selection pane="bottomLeft" activeCell="Q256" sqref="Q256"/>
@@ -13156,7 +13156,7 @@
     <col min="16" max="16" width="11.7109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row spans="1:16" s="16" customFormat="1" ht="13.5" x14ac:dyDescent="0.25" outlineLevel="0" r="1">
       <c r="A1" s="375" t="s">
         <v>0</v>
       </c>
@@ -13206,7 +13206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="2">
       <c r="A2" s="238">
         <v>1</v>
       </c>
@@ -13250,7 +13250,7 @@
       </c>
       <c r="P2" s="368"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="3">
       <c r="A3" s="238">
         <v>2</v>
       </c>
@@ -13294,7 +13294,7 @@
       </c>
       <c r="P3" s="368"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="4">
       <c r="A4" s="238">
         <v>3</v>
       </c>
@@ -13338,7 +13338,7 @@
       </c>
       <c r="P4" s="368"/>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="5">
       <c r="A5" s="238">
         <v>4</v>
       </c>
@@ -13382,7 +13382,7 @@
       </c>
       <c r="P5" s="368"/>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="6">
       <c r="A6" s="238">
         <v>5</v>
       </c>
@@ -13426,7 +13426,7 @@
       </c>
       <c r="P6" s="368"/>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="7">
       <c r="A7" s="238">
         <v>6</v>
       </c>
@@ -13470,7 +13470,7 @@
       </c>
       <c r="P7" s="368"/>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="8">
       <c r="A8" s="238">
         <v>7</v>
       </c>
@@ -13514,7 +13514,7 @@
       </c>
       <c r="P8" s="368"/>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="9">
       <c r="A9" s="238">
         <v>8</v>
       </c>
@@ -13558,7 +13558,7 @@
       </c>
       <c r="P9" s="368"/>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="10">
       <c r="A10" s="238">
         <v>9</v>
       </c>
@@ -13602,7 +13602,7 @@
       </c>
       <c r="P10" s="368"/>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="11">
       <c r="A11" s="238">
         <v>10</v>
       </c>
@@ -13646,7 +13646,7 @@
       </c>
       <c r="P11" s="368"/>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="12">
       <c r="A12" s="238">
         <v>11</v>
       </c>
@@ -13690,7 +13690,7 @@
       </c>
       <c r="P12" s="368"/>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="13">
       <c r="A13" s="238">
         <v>12</v>
       </c>
@@ -13734,7 +13734,7 @@
       </c>
       <c r="P13" s="368"/>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="14">
       <c r="A14" s="238">
         <v>13</v>
       </c>
@@ -13778,7 +13778,7 @@
       </c>
       <c r="P14" s="368"/>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="15">
       <c r="A15" s="238">
         <v>14</v>
       </c>
@@ -13822,7 +13822,7 @@
       </c>
       <c r="P15" s="368"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="16">
       <c r="A16" s="238">
         <v>15</v>
       </c>
@@ -13866,7 +13866,7 @@
       </c>
       <c r="P16" s="368"/>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="17">
       <c r="A17" s="238">
         <v>16</v>
       </c>
@@ -13910,7 +13910,7 @@
       </c>
       <c r="P17" s="368"/>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="18">
       <c r="A18" s="238">
         <v>17</v>
       </c>
@@ -13954,7 +13954,7 @@
       </c>
       <c r="P18" s="368"/>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="19">
       <c r="A19" s="238">
         <v>18</v>
       </c>
@@ -13998,7 +13998,7 @@
       </c>
       <c r="P19" s="368"/>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="20">
       <c r="A20" s="238">
         <v>19</v>
       </c>
@@ -14042,7 +14042,7 @@
       </c>
       <c r="P20" s="368"/>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="21">
       <c r="A21" s="238">
         <v>20</v>
       </c>
@@ -14086,7 +14086,7 @@
       </c>
       <c r="P21" s="368"/>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="22">
       <c r="A22" s="238">
         <v>21</v>
       </c>
@@ -14130,7 +14130,7 @@
       </c>
       <c r="P22" s="368"/>
     </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="23">
       <c r="A23" s="238">
         <v>22</v>
       </c>
@@ -14174,7 +14174,7 @@
       </c>
       <c r="P23" s="368"/>
     </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="24">
       <c r="A24" s="238">
         <v>23</v>
       </c>
@@ -14218,7 +14218,7 @@
       </c>
       <c r="P24" s="368"/>
     </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="25">
       <c r="A25" s="238">
         <v>24</v>
       </c>
@@ -14262,7 +14262,7 @@
       </c>
       <c r="P25" s="368"/>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="26">
       <c r="A26" s="238">
         <v>25</v>
       </c>
@@ -14306,7 +14306,7 @@
       </c>
       <c r="P26" s="368"/>
     </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="27">
       <c r="A27" s="238">
         <v>26</v>
       </c>
@@ -14350,7 +14350,7 @@
       </c>
       <c r="P27" s="368"/>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="28">
       <c r="A28" s="238">
         <v>27</v>
       </c>
@@ -14394,7 +14394,7 @@
       </c>
       <c r="P28" s="368"/>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="29">
       <c r="A29" s="238">
         <v>28</v>
       </c>
@@ -14438,7 +14438,7 @@
       </c>
       <c r="P29" s="368"/>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="30">
       <c r="A30" s="238">
         <v>29</v>
       </c>
@@ -14482,7 +14482,7 @@
       </c>
       <c r="P30" s="368"/>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="31">
       <c r="A31" s="238">
         <v>30</v>
       </c>
@@ -14526,7 +14526,7 @@
       </c>
       <c r="P31" s="368"/>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="32">
       <c r="A32" s="238">
         <v>31</v>
       </c>
@@ -14570,7 +14570,7 @@
       </c>
       <c r="P32" s="368"/>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="33">
       <c r="A33" s="238">
         <v>32</v>
       </c>
@@ -14614,7 +14614,7 @@
       </c>
       <c r="P33" s="368"/>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="34">
       <c r="A34" s="238">
         <v>33</v>
       </c>
@@ -14658,7 +14658,7 @@
       </c>
       <c r="P34" s="368"/>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="35">
       <c r="A35" s="238">
         <v>34</v>
       </c>
@@ -14702,7 +14702,7 @@
       </c>
       <c r="P35" s="368"/>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="36">
       <c r="A36" s="238">
         <v>35</v>
       </c>
@@ -14746,7 +14746,7 @@
       </c>
       <c r="P36" s="368"/>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="37">
       <c r="A37" s="238">
         <v>36</v>
       </c>
@@ -14790,7 +14790,7 @@
       </c>
       <c r="P37" s="368"/>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="38">
       <c r="A38" s="238">
         <v>37</v>
       </c>
@@ -14834,7 +14834,7 @@
       </c>
       <c r="P38" s="368"/>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="39">
       <c r="A39" s="238">
         <v>38</v>
       </c>
@@ -14878,7 +14878,7 @@
       </c>
       <c r="P39" s="368"/>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="40">
       <c r="A40" s="238">
         <v>39</v>
       </c>
@@ -14922,7 +14922,7 @@
       </c>
       <c r="P40" s="368"/>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="41">
       <c r="A41" s="238">
         <v>40</v>
       </c>
@@ -14966,7 +14966,7 @@
       </c>
       <c r="P41" s="368"/>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="42">
       <c r="A42" s="238">
         <v>41</v>
       </c>
@@ -15010,7 +15010,7 @@
       </c>
       <c r="P42" s="368"/>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="43">
       <c r="A43" s="238">
         <v>42</v>
       </c>
@@ -15054,7 +15054,7 @@
       </c>
       <c r="P43" s="368"/>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="44">
       <c r="A44" s="238">
         <v>43</v>
       </c>
@@ -15098,7 +15098,7 @@
       </c>
       <c r="P44" s="368"/>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="45">
       <c r="A45" s="238">
         <v>44</v>
       </c>
@@ -15142,7 +15142,7 @@
       </c>
       <c r="P45" s="368"/>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="46">
       <c r="A46" s="238">
         <v>45</v>
       </c>
@@ -15186,7 +15186,7 @@
       </c>
       <c r="P46" s="368"/>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="47">
       <c r="A47" s="238">
         <v>46</v>
       </c>
@@ -15230,7 +15230,7 @@
       </c>
       <c r="P47" s="368"/>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="48">
       <c r="A48" s="238">
         <v>47</v>
       </c>
@@ -15274,7 +15274,7 @@
       </c>
       <c r="P48" s="368"/>
     </row>
-    <row r="49" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="49">
       <c r="A49" s="238">
         <v>48</v>
       </c>
@@ -15318,7 +15318,7 @@
       </c>
       <c r="P49" s="368"/>
     </row>
-    <row r="50" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="50">
       <c r="A50" s="238">
         <v>49</v>
       </c>
@@ -15362,7 +15362,7 @@
       </c>
       <c r="P50" s="368"/>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="51">
       <c r="A51" s="238">
         <v>50</v>
       </c>
@@ -15406,7 +15406,7 @@
       </c>
       <c r="P51" s="368"/>
     </row>
-    <row r="52" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="52">
       <c r="A52" s="238">
         <v>51</v>
       </c>
@@ -15450,7 +15450,7 @@
       </c>
       <c r="P52" s="368"/>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="53">
       <c r="A53" s="238">
         <v>52</v>
       </c>
@@ -15494,7 +15494,7 @@
       </c>
       <c r="P53" s="368"/>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="54">
       <c r="A54" s="238">
         <v>53</v>
       </c>
@@ -15538,7 +15538,7 @@
       </c>
       <c r="P54" s="368"/>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="55">
       <c r="A55" s="238">
         <v>54</v>
       </c>
@@ -15582,7 +15582,7 @@
       </c>
       <c r="P55" s="368"/>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="56">
       <c r="A56" s="238">
         <v>55</v>
       </c>
@@ -15626,7 +15626,7 @@
       </c>
       <c r="P56" s="368"/>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="57">
       <c r="A57" s="238">
         <v>56</v>
       </c>
@@ -15670,7 +15670,7 @@
       </c>
       <c r="P57" s="368"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="58">
       <c r="A58" s="238">
         <v>57</v>
       </c>
@@ -15714,7 +15714,7 @@
       </c>
       <c r="P58" s="368"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="59">
       <c r="A59" s="238">
         <v>58</v>
       </c>
@@ -15758,7 +15758,7 @@
       </c>
       <c r="P59" s="368"/>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="60">
       <c r="A60" s="238">
         <v>59</v>
       </c>
@@ -15802,7 +15802,7 @@
       </c>
       <c r="P60" s="368"/>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="61">
       <c r="A61" s="238">
         <v>60</v>
       </c>
@@ -15846,7 +15846,7 @@
       </c>
       <c r="P61" s="368"/>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="62">
       <c r="A62" s="238">
         <v>61</v>
       </c>
@@ -15890,7 +15890,7 @@
       </c>
       <c r="P62" s="368"/>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="63">
       <c r="A63" s="238">
         <v>62</v>
       </c>
@@ -15934,7 +15934,7 @@
       </c>
       <c r="P63" s="368"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="64">
       <c r="A64" s="238">
         <v>63</v>
       </c>
@@ -15978,7 +15978,7 @@
       </c>
       <c r="P64" s="368"/>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="65">
       <c r="A65" s="238">
         <v>64</v>
       </c>
@@ -16022,7 +16022,7 @@
       </c>
       <c r="P65" s="368"/>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="66">
       <c r="A66" s="238">
         <v>65</v>
       </c>
@@ -16066,7 +16066,7 @@
       </c>
       <c r="P66" s="368"/>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="67">
       <c r="A67" s="238">
         <v>66</v>
       </c>
@@ -16110,7 +16110,7 @@
       </c>
       <c r="P67" s="368"/>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="68">
       <c r="A68" s="238">
         <v>67</v>
       </c>
@@ -16154,7 +16154,7 @@
       </c>
       <c r="P68" s="368"/>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="69">
       <c r="A69" s="238">
         <v>68</v>
       </c>
@@ -16198,7 +16198,7 @@
       </c>
       <c r="P69" s="368"/>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="70">
       <c r="A70" s="238">
         <v>69</v>
       </c>
@@ -16242,7 +16242,7 @@
       </c>
       <c r="P70" s="368"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="71">
       <c r="A71" s="238">
         <v>70</v>
       </c>
@@ -16286,7 +16286,7 @@
       </c>
       <c r="P71" s="368"/>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="72">
       <c r="A72" s="238">
         <v>71</v>
       </c>
@@ -16330,7 +16330,7 @@
       </c>
       <c r="P72" s="368"/>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="73">
       <c r="A73" s="238">
         <v>72</v>
       </c>
@@ -16374,7 +16374,7 @@
       </c>
       <c r="P73" s="368"/>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="74">
       <c r="A74" s="238">
         <v>73</v>
       </c>
@@ -16418,7 +16418,7 @@
       </c>
       <c r="P74" s="368"/>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="75">
       <c r="A75" s="238">
         <v>74</v>
       </c>
@@ -16462,7 +16462,7 @@
       </c>
       <c r="P75" s="368"/>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="76">
       <c r="A76" s="238">
         <v>75</v>
       </c>
@@ -16506,7 +16506,7 @@
       </c>
       <c r="P76" s="368"/>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="77">
       <c r="A77" s="238">
         <v>76</v>
       </c>
@@ -16550,7 +16550,7 @@
       </c>
       <c r="P77" s="368"/>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="78">
       <c r="A78" s="238">
         <v>77</v>
       </c>
@@ -16594,7 +16594,7 @@
       </c>
       <c r="P78" s="368"/>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="79">
       <c r="A79" s="238">
         <v>78</v>
       </c>
@@ -16638,7 +16638,7 @@
       </c>
       <c r="P79" s="368"/>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="80">
       <c r="A80" s="238">
         <v>79</v>
       </c>
@@ -16682,7 +16682,7 @@
       </c>
       <c r="P80" s="368"/>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="81">
       <c r="A81" s="238">
         <v>80</v>
       </c>
@@ -16726,7 +16726,7 @@
       </c>
       <c r="P81" s="368"/>
     </row>
-    <row r="82" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="82">
       <c r="A82" s="238">
         <v>81</v>
       </c>
@@ -16770,7 +16770,7 @@
       </c>
       <c r="P82" s="368"/>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="83">
       <c r="A83" s="238">
         <v>82</v>
       </c>
@@ -16814,7 +16814,7 @@
       </c>
       <c r="P83" s="368"/>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="84">
       <c r="A84" s="238">
         <v>83</v>
       </c>
@@ -16858,7 +16858,7 @@
       </c>
       <c r="P84" s="368"/>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="85">
       <c r="A85" s="238">
         <v>84</v>
       </c>
@@ -16902,7 +16902,7 @@
       </c>
       <c r="P85" s="368"/>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="86">
       <c r="A86" s="238">
         <v>85</v>
       </c>
@@ -16946,7 +16946,7 @@
       </c>
       <c r="P86" s="368"/>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="87">
       <c r="A87" s="238">
         <v>86</v>
       </c>
@@ -16990,7 +16990,7 @@
       </c>
       <c r="P87" s="368"/>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="88">
       <c r="A88" s="238">
         <v>87</v>
       </c>
@@ -17034,7 +17034,7 @@
       </c>
       <c r="P88" s="368"/>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="89">
       <c r="A89" s="238">
         <v>88</v>
       </c>
@@ -17078,7 +17078,7 @@
       </c>
       <c r="P89" s="368"/>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="90">
       <c r="A90" s="238">
         <v>89</v>
       </c>
@@ -17122,7 +17122,7 @@
       </c>
       <c r="P90" s="368"/>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="91">
       <c r="A91" s="238">
         <v>90</v>
       </c>
@@ -17166,7 +17166,7 @@
       </c>
       <c r="P91" s="368"/>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="92">
       <c r="A92" s="238">
         <v>91</v>
       </c>
@@ -17210,7 +17210,7 @@
       </c>
       <c r="P92" s="368"/>
     </row>
-    <row r="93" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="93">
       <c r="A93" s="238">
         <v>92</v>
       </c>
@@ -17254,7 +17254,7 @@
       </c>
       <c r="P93" s="368"/>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="94">
       <c r="A94" s="238">
         <v>93</v>
       </c>
@@ -17298,7 +17298,7 @@
       </c>
       <c r="P94" s="368"/>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="95">
       <c r="A95" s="238">
         <v>94</v>
       </c>
@@ -17342,7 +17342,7 @@
       </c>
       <c r="P95" s="368"/>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="96">
       <c r="A96" s="238">
         <v>95</v>
       </c>
@@ -17386,7 +17386,7 @@
       </c>
       <c r="P96" s="368"/>
     </row>
-    <row r="97" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="97">
       <c r="A97" s="238">
         <v>96</v>
       </c>
@@ -17430,7 +17430,7 @@
       </c>
       <c r="P97" s="368"/>
     </row>
-    <row r="98" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="98">
       <c r="A98" s="238">
         <v>97</v>
       </c>
@@ -17474,7 +17474,7 @@
       </c>
       <c r="P98" s="368"/>
     </row>
-    <row r="99" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="99">
       <c r="A99" s="238">
         <v>98</v>
       </c>
@@ -17518,7 +17518,7 @@
       </c>
       <c r="P99" s="368"/>
     </row>
-    <row r="100" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="100">
       <c r="A100" s="238">
         <v>99</v>
       </c>
@@ -17562,7 +17562,7 @@
       </c>
       <c r="P100" s="368"/>
     </row>
-    <row r="101" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="101">
       <c r="A101" s="238">
         <v>100</v>
       </c>
@@ -17606,7 +17606,7 @@
       </c>
       <c r="P101" s="368"/>
     </row>
-    <row r="102" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="102">
       <c r="A102" s="238">
         <v>101</v>
       </c>
@@ -17650,7 +17650,7 @@
       </c>
       <c r="P102" s="368"/>
     </row>
-    <row r="103" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="103">
       <c r="A103" s="238">
         <v>102</v>
       </c>
@@ -17694,7 +17694,7 @@
       </c>
       <c r="P103" s="368"/>
     </row>
-    <row r="104" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="104">
       <c r="A104" s="238">
         <v>103</v>
       </c>
@@ -17738,7 +17738,7 @@
       </c>
       <c r="P104" s="368"/>
     </row>
-    <row r="105" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="105">
       <c r="A105" s="238">
         <v>104</v>
       </c>
@@ -17782,7 +17782,7 @@
       </c>
       <c r="P105" s="368"/>
     </row>
-    <row r="106" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="106">
       <c r="A106" s="238">
         <v>105</v>
       </c>
@@ -17826,7 +17826,7 @@
       </c>
       <c r="P106" s="368"/>
     </row>
-    <row r="107" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="107">
       <c r="A107" s="238">
         <v>106</v>
       </c>
@@ -17870,7 +17870,7 @@
       </c>
       <c r="P107" s="368"/>
     </row>
-    <row r="108" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="108">
       <c r="A108" s="238">
         <v>107</v>
       </c>
@@ -17914,7 +17914,7 @@
       </c>
       <c r="P108" s="368"/>
     </row>
-    <row r="109" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="109">
       <c r="A109" s="238">
         <v>108</v>
       </c>
@@ -17958,7 +17958,7 @@
       </c>
       <c r="P109" s="368"/>
     </row>
-    <row r="110" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="110">
       <c r="A110" s="238">
         <v>109</v>
       </c>
@@ -18002,7 +18002,7 @@
       </c>
       <c r="P110" s="368"/>
     </row>
-    <row r="111" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="111">
       <c r="A111" s="238">
         <v>110</v>
       </c>
@@ -18046,7 +18046,7 @@
       </c>
       <c r="P111" s="368"/>
     </row>
-    <row r="112" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="112">
       <c r="A112" s="238">
         <v>111</v>
       </c>
@@ -18090,7 +18090,7 @@
       </c>
       <c r="P112" s="368"/>
     </row>
-    <row r="113" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="113">
       <c r="A113" s="238">
         <v>112</v>
       </c>
@@ -18134,7 +18134,7 @@
       </c>
       <c r="P113" s="368"/>
     </row>
-    <row r="114" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="114">
       <c r="A114" s="238">
         <v>113</v>
       </c>
@@ -18178,7 +18178,7 @@
       </c>
       <c r="P114" s="368"/>
     </row>
-    <row r="115" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="115">
       <c r="A115" s="238">
         <v>114</v>
       </c>
@@ -18222,7 +18222,7 @@
       </c>
       <c r="P115" s="368"/>
     </row>
-    <row r="116" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="116">
       <c r="A116" s="238">
         <v>115</v>
       </c>
@@ -18266,7 +18266,7 @@
       </c>
       <c r="P116" s="368"/>
     </row>
-    <row r="117" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="117">
       <c r="A117" s="238">
         <v>116</v>
       </c>
@@ -18310,7 +18310,7 @@
       </c>
       <c r="P117" s="368"/>
     </row>
-    <row r="118" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="118">
       <c r="A118" s="238">
         <v>117</v>
       </c>
@@ -18354,7 +18354,7 @@
       </c>
       <c r="P118" s="368"/>
     </row>
-    <row r="119" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="119">
       <c r="A119" s="238">
         <v>118</v>
       </c>
@@ -18398,7 +18398,7 @@
       </c>
       <c r="P119" s="368"/>
     </row>
-    <row r="120" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="120">
       <c r="A120" s="238">
         <v>119</v>
       </c>
@@ -18442,7 +18442,7 @@
       </c>
       <c r="P120" s="368"/>
     </row>
-    <row r="121" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="121">
       <c r="A121" s="238">
         <v>120</v>
       </c>
@@ -18486,7 +18486,7 @@
       </c>
       <c r="P121" s="368"/>
     </row>
-    <row r="122" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="122">
       <c r="A122" s="238">
         <v>121</v>
       </c>
@@ -18530,7 +18530,7 @@
       </c>
       <c r="P122" s="368"/>
     </row>
-    <row r="123" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="123">
       <c r="A123" s="238">
         <v>122</v>
       </c>
@@ -18574,7 +18574,7 @@
       </c>
       <c r="P123" s="368"/>
     </row>
-    <row r="124" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="124">
       <c r="A124" s="238">
         <v>123</v>
       </c>
@@ -18618,7 +18618,7 @@
       </c>
       <c r="P124" s="368"/>
     </row>
-    <row r="125" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="125">
       <c r="A125" s="238">
         <v>124</v>
       </c>
@@ -18662,7 +18662,7 @@
       </c>
       <c r="P125" s="368"/>
     </row>
-    <row r="126" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="126">
       <c r="A126" s="238">
         <v>125</v>
       </c>
@@ -18706,7 +18706,7 @@
       </c>
       <c r="P126" s="368"/>
     </row>
-    <row r="127" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="127">
       <c r="A127" s="238">
         <v>126</v>
       </c>
@@ -18750,7 +18750,7 @@
       </c>
       <c r="P127" s="368"/>
     </row>
-    <row r="128" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="128">
       <c r="A128" s="238">
         <v>127</v>
       </c>
@@ -18794,7 +18794,7 @@
       </c>
       <c r="P128" s="368"/>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="129">
       <c r="A129" s="238">
         <v>128</v>
       </c>
@@ -18838,7 +18838,7 @@
       </c>
       <c r="P129" s="368"/>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="130">
       <c r="A130" s="238">
         <v>129</v>
       </c>
@@ -18882,7 +18882,7 @@
       </c>
       <c r="P130" s="368"/>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="131">
       <c r="A131" s="238">
         <v>130</v>
       </c>
@@ -18926,7 +18926,7 @@
       </c>
       <c r="P131" s="368"/>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="132">
       <c r="A132" s="238">
         <v>131</v>
       </c>
@@ -18970,7 +18970,7 @@
       </c>
       <c r="P132" s="368"/>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="133">
       <c r="A133" s="238">
         <v>132</v>
       </c>
@@ -19014,7 +19014,7 @@
       </c>
       <c r="P133" s="368"/>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="134">
       <c r="A134" s="238">
         <v>133</v>
       </c>
@@ -19058,7 +19058,7 @@
       </c>
       <c r="P134" s="368"/>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="135">
       <c r="A135" s="238">
         <v>134</v>
       </c>
@@ -19102,7 +19102,7 @@
       </c>
       <c r="P135" s="368"/>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="136">
       <c r="A136" s="238">
         <v>135</v>
       </c>
@@ -19146,7 +19146,7 @@
       </c>
       <c r="P136" s="368"/>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="137">
       <c r="A137" s="238">
         <v>136</v>
       </c>
@@ -19190,7 +19190,7 @@
       </c>
       <c r="P137" s="368"/>
     </row>
-    <row r="138" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="138">
       <c r="A138" s="238">
         <v>137</v>
       </c>
@@ -19234,7 +19234,7 @@
       </c>
       <c r="P138" s="368"/>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="139">
       <c r="A139" s="238">
         <v>138</v>
       </c>
@@ -19278,7 +19278,7 @@
       </c>
       <c r="P139" s="368"/>
     </row>
-    <row r="140" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="140">
       <c r="A140" s="238">
         <v>139</v>
       </c>
@@ -19322,7 +19322,7 @@
       </c>
       <c r="P140" s="368"/>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="141">
       <c r="A141" s="238">
         <v>140</v>
       </c>
@@ -19366,7 +19366,7 @@
       </c>
       <c r="P141" s="368"/>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="142">
       <c r="A142" s="238">
         <v>141</v>
       </c>
@@ -19410,7 +19410,7 @@
       </c>
       <c r="P142" s="368"/>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="143">
       <c r="A143" s="238">
         <v>142</v>
       </c>
@@ -19454,7 +19454,7 @@
       </c>
       <c r="P143" s="368"/>
     </row>
-    <row r="144" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="144">
       <c r="A144" s="238">
         <v>143</v>
       </c>
@@ -19498,7 +19498,7 @@
       </c>
       <c r="P144" s="368"/>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="145">
       <c r="A145" s="238">
         <v>144</v>
       </c>
@@ -19542,7 +19542,7 @@
       </c>
       <c r="P145" s="368"/>
     </row>
-    <row r="146" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="146">
       <c r="A146" s="238">
         <v>145</v>
       </c>
@@ -19586,7 +19586,7 @@
       </c>
       <c r="P146" s="368"/>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="147">
       <c r="A147" s="238">
         <v>146</v>
       </c>
@@ -19630,7 +19630,7 @@
       </c>
       <c r="P147" s="368"/>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="148">
       <c r="A148" s="238">
         <v>147</v>
       </c>
@@ -19674,7 +19674,7 @@
       </c>
       <c r="P148" s="368"/>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="149">
       <c r="A149" s="238">
         <v>148</v>
       </c>
@@ -19718,7 +19718,7 @@
       </c>
       <c r="P149" s="368"/>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="150">
       <c r="A150" s="238">
         <v>149</v>
       </c>
@@ -19762,7 +19762,7 @@
       </c>
       <c r="P150" s="368"/>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="151">
       <c r="A151" s="238">
         <v>150</v>
       </c>
@@ -19806,7 +19806,7 @@
       </c>
       <c r="P151" s="368"/>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="152">
       <c r="A152" s="238">
         <v>151</v>
       </c>
@@ -19850,7 +19850,7 @@
       </c>
       <c r="P152" s="368"/>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="153">
       <c r="A153" s="238">
         <v>152</v>
       </c>
@@ -19894,7 +19894,7 @@
       </c>
       <c r="P153" s="368"/>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="154">
       <c r="A154" s="238">
         <v>153</v>
       </c>
@@ -19938,7 +19938,7 @@
       </c>
       <c r="P154" s="368"/>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="155">
       <c r="A155" s="238">
         <v>154</v>
       </c>
@@ -19982,7 +19982,7 @@
       </c>
       <c r="P155" s="368"/>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="156">
       <c r="A156" s="238">
         <v>155</v>
       </c>
@@ -20026,7 +20026,7 @@
       </c>
       <c r="P156" s="368"/>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="157">
       <c r="A157" s="238">
         <v>156</v>
       </c>
@@ -20070,7 +20070,7 @@
       </c>
       <c r="P157" s="368"/>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="158">
       <c r="A158" s="238">
         <v>157</v>
       </c>
@@ -20114,7 +20114,7 @@
       </c>
       <c r="P158" s="368"/>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="159">
       <c r="A159" s="238">
         <v>158</v>
       </c>
@@ -20158,7 +20158,7 @@
       </c>
       <c r="P159" s="368"/>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="160">
       <c r="A160" s="238">
         <v>159</v>
       </c>
@@ -20202,7 +20202,7 @@
       </c>
       <c r="P160" s="368"/>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="161">
       <c r="A161" s="238">
         <v>160</v>
       </c>
@@ -20246,7 +20246,7 @@
       </c>
       <c r="P161" s="368"/>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="162">
       <c r="A162" s="238">
         <v>161</v>
       </c>
@@ -20290,7 +20290,7 @@
       </c>
       <c r="P162" s="368"/>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="163">
       <c r="A163" s="238">
         <v>162</v>
       </c>
@@ -20334,7 +20334,7 @@
       </c>
       <c r="P163" s="368"/>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="164">
       <c r="A164" s="238">
         <v>163</v>
       </c>
@@ -20378,7 +20378,7 @@
       </c>
       <c r="P164" s="368"/>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="165">
       <c r="A165" s="238">
         <v>164</v>
       </c>
@@ -20422,7 +20422,7 @@
       </c>
       <c r="P165" s="368"/>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="166">
       <c r="A166" s="238">
         <v>165</v>
       </c>
@@ -20466,7 +20466,7 @@
       </c>
       <c r="P166" s="368"/>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="167">
       <c r="A167" s="238">
         <v>166</v>
       </c>
@@ -20510,7 +20510,7 @@
       </c>
       <c r="P167" s="368"/>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="168">
       <c r="A168" s="238">
         <v>167</v>
       </c>
@@ -20554,7 +20554,7 @@
       </c>
       <c r="P168" s="368"/>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="169">
       <c r="A169" s="238">
         <v>168</v>
       </c>
@@ -20598,7 +20598,7 @@
       </c>
       <c r="P169" s="368"/>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="170">
       <c r="A170" s="238">
         <v>169</v>
       </c>
@@ -20642,7 +20642,7 @@
       </c>
       <c r="P170" s="368"/>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="171">
       <c r="A171" s="238">
         <v>170</v>
       </c>
@@ -20686,7 +20686,7 @@
       </c>
       <c r="P171" s="368"/>
     </row>
-    <row r="172" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="172">
       <c r="A172" s="238">
         <v>171</v>
       </c>
@@ -20730,7 +20730,7 @@
       </c>
       <c r="P172" s="368"/>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="173">
       <c r="A173" s="238">
         <v>172</v>
       </c>
@@ -20774,7 +20774,7 @@
       </c>
       <c r="P173" s="368"/>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="174">
       <c r="A174" s="238">
         <v>173</v>
       </c>
@@ -20818,7 +20818,7 @@
       </c>
       <c r="P174" s="368"/>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="175">
       <c r="A175" s="238">
         <v>174</v>
       </c>
@@ -20862,7 +20862,7 @@
       </c>
       <c r="P175" s="368"/>
     </row>
-    <row r="176" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="176">
       <c r="A176" s="238">
         <v>175</v>
       </c>
@@ -20906,7 +20906,7 @@
       </c>
       <c r="P176" s="368"/>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="177">
       <c r="A177" s="238">
         <v>176</v>
       </c>
@@ -20950,7 +20950,7 @@
       </c>
       <c r="P177" s="368"/>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="178">
       <c r="A178" s="238">
         <v>177</v>
       </c>
@@ -20994,7 +20994,7 @@
       </c>
       <c r="P178" s="368"/>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="179">
       <c r="A179" s="238">
         <v>178</v>
       </c>
@@ -21038,7 +21038,7 @@
       </c>
       <c r="P179" s="368"/>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="180">
       <c r="A180" s="238">
         <v>179</v>
       </c>
@@ -21082,7 +21082,7 @@
       </c>
       <c r="P180" s="368"/>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="181">
       <c r="A181" s="238">
         <v>180</v>
       </c>
@@ -21126,7 +21126,7 @@
       </c>
       <c r="P181" s="368"/>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="182">
       <c r="A182" s="238">
         <v>181</v>
       </c>
@@ -21170,7 +21170,7 @@
       </c>
       <c r="P182" s="368"/>
     </row>
-    <row r="183" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="183">
       <c r="A183" s="238">
         <v>182</v>
       </c>
@@ -21214,7 +21214,7 @@
       </c>
       <c r="P183" s="368"/>
     </row>
-    <row r="184" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="184">
       <c r="A184" s="238">
         <v>183</v>
       </c>
@@ -21258,7 +21258,7 @@
       </c>
       <c r="P184" s="368"/>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="185">
       <c r="A185" s="238">
         <v>184</v>
       </c>
@@ -21302,7 +21302,7 @@
       </c>
       <c r="P185" s="368"/>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="186">
       <c r="A186" s="238">
         <v>185</v>
       </c>
@@ -21346,7 +21346,7 @@
       </c>
       <c r="P186" s="368"/>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="187">
       <c r="A187" s="238">
         <v>186</v>
       </c>
@@ -21390,7 +21390,7 @@
       </c>
       <c r="P187" s="368"/>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="188">
       <c r="A188" s="238">
         <v>187</v>
       </c>
@@ -21436,7 +21436,7 @@
       </c>
       <c r="P188" s="368"/>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="189">
       <c r="A189" s="238">
         <v>188</v>
       </c>
@@ -21480,7 +21480,7 @@
       </c>
       <c r="P189" s="368"/>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="190">
       <c r="A190" s="238">
         <v>189</v>
       </c>
@@ -21524,7 +21524,7 @@
       </c>
       <c r="P190" s="368"/>
     </row>
-    <row r="191" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="191">
       <c r="A191" s="238">
         <v>190</v>
       </c>
@@ -21570,7 +21570,7 @@
       </c>
       <c r="P191" s="368"/>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="192">
       <c r="A192" s="238">
         <v>191</v>
       </c>
@@ -21614,7 +21614,7 @@
       </c>
       <c r="P192" s="368"/>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="193">
       <c r="A193" s="238">
         <v>192</v>
       </c>
@@ -21658,7 +21658,7 @@
       </c>
       <c r="P193" s="368"/>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="194">
       <c r="A194" s="238">
         <v>193</v>
       </c>
@@ -21702,7 +21702,7 @@
       </c>
       <c r="P194" s="368"/>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="195">
       <c r="A195" s="238">
         <v>194</v>
       </c>
@@ -21746,7 +21746,7 @@
       </c>
       <c r="P195" s="368"/>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="196">
       <c r="A196" s="238">
         <v>195</v>
       </c>
@@ -21790,7 +21790,7 @@
       </c>
       <c r="P196" s="368"/>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="197">
       <c r="A197" s="238">
         <v>196</v>
       </c>
@@ -21834,7 +21834,7 @@
       </c>
       <c r="P197" s="368"/>
     </row>
-    <row r="198" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="198">
       <c r="A198" s="238">
         <v>197</v>
       </c>
@@ -21878,7 +21878,7 @@
       </c>
       <c r="P198" s="368"/>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="199">
       <c r="A199" s="238">
         <v>198</v>
       </c>
@@ -21922,7 +21922,7 @@
       </c>
       <c r="P199" s="368"/>
     </row>
-    <row r="200" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="200">
       <c r="A200" s="238">
         <v>199</v>
       </c>
@@ -21966,7 +21966,7 @@
       </c>
       <c r="P200" s="368"/>
     </row>
-    <row r="201" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="201">
       <c r="A201" s="238">
         <v>200</v>
       </c>
@@ -22010,7 +22010,7 @@
       </c>
       <c r="P201" s="368"/>
     </row>
-    <row r="202" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="202">
       <c r="A202" s="238">
         <v>201</v>
       </c>
@@ -22054,7 +22054,7 @@
       </c>
       <c r="P202" s="368"/>
     </row>
-    <row r="203" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="203">
       <c r="A203" s="238">
         <v>202</v>
       </c>
@@ -22098,7 +22098,7 @@
       </c>
       <c r="P203" s="368"/>
     </row>
-    <row r="204" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="204">
       <c r="A204" s="238">
         <v>203</v>
       </c>
@@ -22142,7 +22142,7 @@
       </c>
       <c r="P204" s="368"/>
     </row>
-    <row r="205" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="205">
       <c r="A205" s="238">
         <v>204</v>
       </c>
@@ -22186,7 +22186,7 @@
       </c>
       <c r="P205" s="368"/>
     </row>
-    <row r="206" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="206">
       <c r="A206" s="238">
         <v>205</v>
       </c>
@@ -22230,7 +22230,7 @@
       </c>
       <c r="P206" s="368"/>
     </row>
-    <row r="207" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="207">
       <c r="A207" s="238">
         <v>206</v>
       </c>
@@ -22274,7 +22274,7 @@
       </c>
       <c r="P207" s="368"/>
     </row>
-    <row r="208" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="208">
       <c r="A208" s="238">
         <v>207</v>
       </c>
@@ -22318,7 +22318,7 @@
       </c>
       <c r="P208" s="368"/>
     </row>
-    <row r="209" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="209">
       <c r="A209" s="238">
         <v>208</v>
       </c>
@@ -22362,7 +22362,7 @@
       </c>
       <c r="P209" s="368"/>
     </row>
-    <row r="210" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="210">
       <c r="A210" s="238">
         <v>209</v>
       </c>
@@ -22406,7 +22406,7 @@
       </c>
       <c r="P210" s="368"/>
     </row>
-    <row r="211" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="211">
       <c r="A211" s="238">
         <v>210</v>
       </c>
@@ -22450,7 +22450,7 @@
       </c>
       <c r="P211" s="368"/>
     </row>
-    <row r="212" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="212">
       <c r="A212" s="238">
         <v>211</v>
       </c>
@@ -22494,7 +22494,7 @@
       </c>
       <c r="P212" s="368"/>
     </row>
-    <row r="213" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="213">
       <c r="A213" s="238">
         <v>212</v>
       </c>
@@ -22538,7 +22538,7 @@
       </c>
       <c r="P213" s="368"/>
     </row>
-    <row r="214" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="214">
       <c r="A214" s="238">
         <v>213</v>
       </c>
@@ -22582,7 +22582,7 @@
       </c>
       <c r="P214" s="368"/>
     </row>
-    <row r="215" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="215">
       <c r="A215" s="238">
         <v>214</v>
       </c>
@@ -22626,7 +22626,7 @@
       </c>
       <c r="P215" s="368"/>
     </row>
-    <row r="216" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="216">
       <c r="A216" s="238">
         <v>215</v>
       </c>
@@ -22670,7 +22670,7 @@
       </c>
       <c r="P216" s="368"/>
     </row>
-    <row r="217" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="217">
       <c r="A217" s="238">
         <v>216</v>
       </c>
@@ -22714,7 +22714,7 @@
       </c>
       <c r="P217" s="368"/>
     </row>
-    <row r="218" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="218">
       <c r="A218" s="238">
         <v>217</v>
       </c>
@@ -22758,7 +22758,7 @@
       </c>
       <c r="P218" s="368"/>
     </row>
-    <row r="219" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="219">
       <c r="A219" s="238">
         <v>218</v>
       </c>
@@ -22802,7 +22802,7 @@
       </c>
       <c r="P219" s="368"/>
     </row>
-    <row r="220" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="220">
       <c r="A220" s="238">
         <v>219</v>
       </c>
@@ -22846,7 +22846,7 @@
       </c>
       <c r="P220" s="368"/>
     </row>
-    <row r="221" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="221">
       <c r="A221" s="238">
         <v>220</v>
       </c>
@@ -22890,7 +22890,7 @@
       </c>
       <c r="P221" s="368"/>
     </row>
-    <row r="222" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="222">
       <c r="A222" s="238">
         <v>221</v>
       </c>
@@ -22934,7 +22934,7 @@
       </c>
       <c r="P222" s="368"/>
     </row>
-    <row r="223" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="223">
       <c r="A223" s="238">
         <v>222</v>
       </c>
@@ -22978,7 +22978,7 @@
       </c>
       <c r="P223" s="368"/>
     </row>
-    <row r="224" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="224">
       <c r="A224" s="238">
         <v>223</v>
       </c>
@@ -23022,7 +23022,7 @@
       </c>
       <c r="P224" s="368"/>
     </row>
-    <row r="225" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="225">
       <c r="A225" s="238">
         <v>224</v>
       </c>
@@ -23045,7 +23045,7 @@
         <v>729</v>
       </c>
       <c r="H225" s="378">
-        <v>1.1000000000000001</v>
+        <v>1.1</v>
       </c>
       <c r="I225" s="367"/>
       <c r="J225" s="240" t="s">
@@ -23066,7 +23066,7 @@
       </c>
       <c r="P225" s="368"/>
     </row>
-    <row r="226" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="226">
       <c r="A226" s="238">
         <v>225</v>
       </c>
@@ -23110,7 +23110,7 @@
       </c>
       <c r="P226" s="368"/>
     </row>
-    <row r="227" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="227">
       <c r="A227" s="238">
         <v>226</v>
       </c>
@@ -23154,7 +23154,7 @@
       </c>
       <c r="P227" s="368"/>
     </row>
-    <row r="228" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="228">
       <c r="A228" s="238">
         <v>227</v>
       </c>
@@ -23198,7 +23198,7 @@
       </c>
       <c r="P228" s="368"/>
     </row>
-    <row r="229" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="229">
       <c r="A229" s="238">
         <v>228</v>
       </c>
@@ -23242,7 +23242,7 @@
       </c>
       <c r="P229" s="368"/>
     </row>
-    <row r="230" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="230">
       <c r="A230" s="238">
         <v>229</v>
       </c>
@@ -23286,7 +23286,7 @@
       </c>
       <c r="P230" s="368"/>
     </row>
-    <row r="231" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="231">
       <c r="A231" s="238">
         <v>230</v>
       </c>
@@ -23330,7 +23330,7 @@
       </c>
       <c r="P231" s="368"/>
     </row>
-    <row r="232" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="232">
       <c r="A232" s="238">
         <v>231</v>
       </c>
@@ -23374,7 +23374,7 @@
       </c>
       <c r="P232" s="368"/>
     </row>
-    <row r="233" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="233">
       <c r="A233" s="238">
         <v>232</v>
       </c>
@@ -23418,7 +23418,7 @@
       </c>
       <c r="P233" s="368"/>
     </row>
-    <row r="234" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="234">
       <c r="A234" s="238">
         <v>233</v>
       </c>
@@ -23462,7 +23462,7 @@
       </c>
       <c r="P234" s="368"/>
     </row>
-    <row r="235" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="235">
       <c r="A235" s="238">
         <v>234</v>
       </c>
@@ -23506,7 +23506,7 @@
       </c>
       <c r="P235" s="368"/>
     </row>
-    <row r="236" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="236">
       <c r="A236" s="238">
         <v>235</v>
       </c>
@@ -23550,7 +23550,7 @@
       </c>
       <c r="P236" s="368"/>
     </row>
-    <row r="237" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="237">
       <c r="A237" s="238">
         <v>236</v>
       </c>
@@ -23594,7 +23594,7 @@
       </c>
       <c r="P237" s="368"/>
     </row>
-    <row r="238" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="238">
       <c r="A238" s="238">
         <v>237</v>
       </c>
@@ -23638,7 +23638,7 @@
       </c>
       <c r="P238" s="368"/>
     </row>
-    <row r="239" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="239">
       <c r="A239" s="238">
         <v>238</v>
       </c>
@@ -23682,7 +23682,7 @@
       </c>
       <c r="P239" s="368"/>
     </row>
-    <row r="240" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="240">
       <c r="A240" s="238">
         <v>239</v>
       </c>
@@ -23726,7 +23726,7 @@
       </c>
       <c r="P240" s="368"/>
     </row>
-    <row r="241" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="241">
       <c r="A241" s="238">
         <v>240</v>
       </c>
@@ -23770,7 +23770,7 @@
       </c>
       <c r="P241" s="368"/>
     </row>
-    <row r="242" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="242">
       <c r="A242" s="238">
         <v>241</v>
       </c>
@@ -23814,7 +23814,7 @@
       </c>
       <c r="P242" s="368"/>
     </row>
-    <row r="243" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="243">
       <c r="A243" s="238">
         <v>242</v>
       </c>
@@ -23858,7 +23858,7 @@
       </c>
       <c r="P243" s="368"/>
     </row>
-    <row r="244" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="244">
       <c r="A244" s="238">
         <v>243</v>
       </c>
@@ -23902,7 +23902,7 @@
       </c>
       <c r="P244" s="368"/>
     </row>
-    <row r="245" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="245">
       <c r="A245" s="238">
         <v>244</v>
       </c>
@@ -23946,7 +23946,7 @@
       </c>
       <c r="P245" s="368"/>
     </row>
-    <row r="246" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="246">
       <c r="A246" s="238">
         <v>245</v>
       </c>
@@ -23990,7 +23990,7 @@
       </c>
       <c r="P246" s="368"/>
     </row>
-    <row r="247" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="247">
       <c r="A247" s="238">
         <v>246</v>
       </c>
@@ -24013,7 +24013,7 @@
         <v>751</v>
       </c>
       <c r="H247" s="378">
-        <v>2.2999999999999998</v>
+        <v>2.3</v>
       </c>
       <c r="I247" s="367"/>
       <c r="J247" s="240" t="s">
@@ -24034,7 +24034,7 @@
       </c>
       <c r="P247" s="368"/>
     </row>
-    <row r="248" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="248">
       <c r="A248" s="238">
         <v>247</v>
       </c>
@@ -24078,7 +24078,7 @@
       </c>
       <c r="P248" s="368"/>
     </row>
-    <row r="249" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="249">
       <c r="A249" s="238">
         <v>248</v>
       </c>
@@ -24122,7 +24122,7 @@
       </c>
       <c r="P249" s="368"/>
     </row>
-    <row r="250" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="250">
       <c r="A250" s="238">
         <v>249</v>
       </c>
@@ -24166,7 +24166,7 @@
       </c>
       <c r="P250" s="368"/>
     </row>
-    <row r="251" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="251">
       <c r="A251" s="238">
         <v>250</v>
       </c>
@@ -24210,7 +24210,7 @@
       </c>
       <c r="P251" s="368"/>
     </row>
-    <row r="252" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="252">
       <c r="A252" s="238">
         <v>251</v>
       </c>
@@ -24254,7 +24254,7 @@
       </c>
       <c r="P252" s="368"/>
     </row>
-    <row r="253" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="253">
       <c r="A253" s="238">
         <v>252</v>
       </c>
@@ -24298,7 +24298,7 @@
       </c>
       <c r="P253" s="368"/>
     </row>
-    <row r="254" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="254">
       <c r="A254" s="238">
         <v>253</v>
       </c>
@@ -24342,7 +24342,7 @@
       </c>
       <c r="P254" s="368"/>
     </row>
-    <row r="255" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="255">
       <c r="A255" s="238">
         <v>254</v>
       </c>
@@ -24386,7 +24386,7 @@
       </c>
       <c r="P255" s="368"/>
     </row>
-    <row r="256" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="256">
       <c r="A256" s="238">
         <v>255</v>
       </c>
@@ -24409,7 +24409,7 @@
         <v>762</v>
       </c>
       <c r="H256" s="378">
-        <v>2.2000000000000002</v>
+        <v>2.2</v>
       </c>
       <c r="I256" s="367"/>
       <c r="J256" s="240" t="s">
@@ -24430,7 +24430,7 @@
       </c>
       <c r="P256" s="368"/>
     </row>
-    <row r="257" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="257">
       <c r="A257" s="238">
         <v>256</v>
       </c>
@@ -24474,7 +24474,7 @@
       </c>
       <c r="P257" s="368"/>
     </row>
-    <row r="258" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="258">
       <c r="A258" s="238">
         <v>257</v>
       </c>
@@ -24518,7 +24518,7 @@
       </c>
       <c r="P258" s="368"/>
     </row>
-    <row r="259" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="259">
       <c r="A259" s="238">
         <v>258</v>
       </c>
@@ -24562,7 +24562,7 @@
       </c>
       <c r="P259" s="368"/>
     </row>
-    <row r="260" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="260">
       <c r="A260" s="238">
         <v>259</v>
       </c>
@@ -24606,7 +24606,7 @@
       </c>
       <c r="P260" s="368"/>
     </row>
-    <row r="261" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="261">
       <c r="A261" s="238">
         <v>260</v>
       </c>
@@ -24648,7 +24648,7 @@
       </c>
       <c r="P261" s="368"/>
     </row>
-    <row r="262" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="262">
       <c r="A262" s="243">
         <v>261</v>
       </c>
@@ -24692,7 +24692,7 @@
       </c>
       <c r="P262" s="370"/>
     </row>
-    <row r="263" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="263">
       <c r="A263" s="356">
         <v>262</v>
       </c>
@@ -24722,7 +24722,7 @@
         <v>403</v>
       </c>
       <c r="K263" s="386">
-        <v>45512.428287037001</v>
+        <v>45512.428287037</v>
       </c>
       <c r="L263" s="358" t="s">
         <v>403</v>
@@ -24736,7 +24736,7 @@
       </c>
       <c r="P263" s="372"/>
     </row>
-    <row r="264" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="264">
       <c r="A264" s="356">
         <v>263</v>
       </c>
@@ -24766,7 +24766,7 @@
         <v>402</v>
       </c>
       <c r="K264" s="386">
-        <v>45512.446956018503</v>
+        <v>45512.4469560185</v>
       </c>
       <c r="L264" s="358" t="s">
         <v>403</v>
@@ -24780,7 +24780,7 @@
       </c>
       <c r="P264" s="372"/>
     </row>
-    <row r="265" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="265">
       <c r="A265" s="356">
         <v>264</v>
       </c>
@@ -24810,7 +24810,7 @@
         <v>402</v>
       </c>
       <c r="K265" s="386">
-        <v>45512.562256944402</v>
+        <v>45512.5622569444</v>
       </c>
       <c r="L265" s="358" t="s">
         <v>403</v>
@@ -24824,7 +24824,7 @@
       </c>
       <c r="P265" s="372"/>
     </row>
-    <row r="266" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="266">
       <c r="A266" s="356">
         <v>265</v>
       </c>
@@ -24854,7 +24854,7 @@
         <v>403</v>
       </c>
       <c r="K266" s="386">
-        <v>45512.641967592601</v>
+        <v>45512.6419675926</v>
       </c>
       <c r="L266" s="358" t="s">
         <v>403</v>
@@ -24868,7 +24868,7 @@
       </c>
       <c r="P266" s="372"/>
     </row>
-    <row r="267" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="267">
       <c r="A267" s="356">
         <v>266</v>
       </c>
@@ -24912,7 +24912,7 @@
       </c>
       <c r="P267" s="372"/>
     </row>
-    <row r="268" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="268">
       <c r="A268" s="356">
         <v>268</v>
       </c>
@@ -24942,7 +24942,7 @@
         <v>402</v>
       </c>
       <c r="K268" s="386">
-        <v>45512.697476851798</v>
+        <v>45512.6974768518</v>
       </c>
       <c r="L268" s="358" t="s">
         <v>403</v>
@@ -24956,7 +24956,7 @@
       </c>
       <c r="P268" s="372"/>
     </row>
-    <row r="269" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="269">
       <c r="A269" s="356">
         <v>269</v>
       </c>
@@ -24986,7 +24986,7 @@
         <v>402</v>
       </c>
       <c r="K269" s="386">
-        <v>45512.696944444397</v>
+        <v>45512.6969444444</v>
       </c>
       <c r="L269" s="358" t="s">
         <v>403</v>
@@ -25000,7 +25000,7 @@
       </c>
       <c r="P269" s="372"/>
     </row>
-    <row r="270" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="270">
       <c r="A270" s="356">
         <v>270</v>
       </c>
@@ -25030,7 +25030,7 @@
         <v>402</v>
       </c>
       <c r="K270" s="386">
-        <v>45512.698831018497</v>
+        <v>45512.6988310185</v>
       </c>
       <c r="L270" s="358" t="s">
         <v>403</v>
@@ -25044,7 +25044,7 @@
       </c>
       <c r="P270" s="372"/>
     </row>
-    <row r="271" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="271">
       <c r="A271" s="356">
         <v>271</v>
       </c>
@@ -25074,7 +25074,7 @@
         <v>402</v>
       </c>
       <c r="K271" s="386">
-        <v>45512.694756944402</v>
+        <v>45512.6947569444</v>
       </c>
       <c r="L271" s="358" t="s">
         <v>403</v>
@@ -25088,7 +25088,7 @@
       </c>
       <c r="P271" s="372"/>
     </row>
-    <row r="272" spans="1:16" x14ac:dyDescent="0.25">
+    <row spans="1:16" x14ac:dyDescent="0.25" outlineLevel="0" r="272">
       <c r="A272" s="359">
         <v>272</v>
       </c>
@@ -25116,19 +25116,132 @@
         <v>402</v>
       </c>
       <c r="K272" s="387">
-        <v>45513.339456018497</v>
+        <v>45513.722974537</v>
       </c>
       <c r="L272" s="361" t="s">
         <v>403</v>
       </c>
       <c r="M272" s="382"/>
-      <c r="N272" s="361" t="s">
-        <v>403</v>
-      </c>
-      <c r="O272" s="361" t="s">
-        <v>982</v>
+      <c r="N272" s="361" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="O272" s="361" t="inlineStr">
+        <is>
+          <t>APP_v4.C.3.xlsm</t>
+        </is>
       </c>
       <c r="P272" s="374"/>
+    </row>
+    <row outlineLevel="0" r="273">
+      <c r="A273" s="351">
+        <v>273</v>
+      </c>
+      <c r="B273" s="351">
+        <v>1</v>
+      </c>
+      <c r="C273" s="351" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D273" s="382">
+        <v>45513</v>
+      </c>
+      <c r="E273" s="351" t="inlineStr">
+        <is>
+          <t>193r</t>
+        </is>
+      </c>
+      <c r="F273" s="351" t="inlineStr">
+        <is>
+          <t>Les logiciels INFORMAT inc.[Robert M. Vigneault]</t>
+        </is>
+      </c>
+      <c r="H273" s="351">
+        <v>0.2</v>
+      </c>
+      <c r="J273" s="351" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K273" s="382">
+        <v>45513.7239699074</v>
+      </c>
+      <c r="L273" s="351" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N273" s="351" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="O273" s="351" t="inlineStr">
+        <is>
+          <t>APP_v4.C.3.xlsm</t>
+        </is>
+      </c>
+    </row>
+    <row outlineLevel="0" r="274">
+      <c r="A274" s="351">
+        <v>274</v>
+      </c>
+      <c r="B274" s="351">
+        <v>1</v>
+      </c>
+      <c r="C274" s="351" t="inlineStr">
+        <is>
+          <t>GC</t>
+        </is>
+      </c>
+      <c r="D274" s="382">
+        <v>45515</v>
+      </c>
+      <c r="E274" s="351" t="inlineStr">
+        <is>
+          <t>1780</t>
+        </is>
+      </c>
+      <c r="F274" s="351" t="inlineStr">
+        <is>
+          <t>9112-9031 Québec inc [Guy Béland]</t>
+        </is>
+      </c>
+      <c r="G274" s="351" t="inlineStr">
+        <is>
+          <t>avancer le mémorandum fiscal et organigramme et tableaux, courriels, etc</t>
+        </is>
+      </c>
+      <c r="H274" s="351">
+        <v>4.5</v>
+      </c>
+      <c r="J274" s="351" t="inlineStr">
+        <is>
+          <t>VRAI</t>
+        </is>
+      </c>
+      <c r="K274" s="382">
+        <v>45515.4389699074</v>
+      </c>
+      <c r="L274" s="351" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="N274" s="351" t="inlineStr">
+        <is>
+          <t>FAUX</t>
+        </is>
+      </c>
+      <c r="O274" s="351" t="inlineStr">
+        <is>
+          <t>APP_v4.D.xlsm</t>
+        </is>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
